--- a/VDRDTH50A01A952M_Darth_Vader/VDRDTH50A01A952M_Darth_Vader_medical_record.xlsx
+++ b/VDRDTH50A01A952M_Darth_Vader/VDRDTH50A01A952M_Darth_Vader_medical_record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\franzmelchiori\projects\studiodt\SKYLKU80A01L378N_Luke_Skywalker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\franzmelchiori\projects\studiodt\VDRDTH50A01A952M_Darth_Vader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A452AE-A3D3-4A2F-9FC0-F194F2BF6F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA55AF5-852A-4D6E-B988-E82FE14CEA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{1C74181E-EB80-4B6F-BE53-902FEC8B0317}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="23040" windowHeight="25464" xr2:uid="{1C74181E-EB80-4B6F-BE53-902FEC8B0317}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>codice fiscale</t>
+  </si>
+  <si>
+    <t>stato</t>
+  </si>
+  <si>
+    <t>valutazione</t>
+  </si>
+  <si>
+    <t>VDRDTH50A01A952M</t>
+  </si>
+  <si>
+    <t>Darth</t>
+  </si>
+  <si>
+    <t>Vader</t>
+  </si>
+  <si>
+    <t>disattivo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,12 +436,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A09C97-2871-41DA-9020-195A8A847BD8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>